--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86186.42408748697</v>
+        <v>15940110.53825648</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86186.42408748697</v>
+        <v>15940110.53825648</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6973.893807110078</v>
+        <v>783900.9015082426</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6973.893807110078</v>
+        <v>783900.9015082426</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189307408.536354</v>
+        <v>48750042.00476201</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10158.50700777041</v>
+        <v>1157637.783995002</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19112.55694909109</v>
+        <v>2130926.614731289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28066.60689041176</v>
+        <v>3104215.445467578</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37217.58895744304</v>
+        <v>4088829.107427222</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46305.3564594464</v>
+        <v>5063286.489335776</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54896.54638042599</v>
+        <v>6015894.457679284</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63693.86284447205</v>
+        <v>6990351.839587835</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72491.17930851811</v>
+        <v>7964809.221496385</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81178.1000198369</v>
+        <v>8881073.738231601</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89648.14767610749</v>
+        <v>9849493.572722215</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97669.31198601848</v>
+        <v>10741070.68116034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106065.1668719655</v>
+        <v>11712082.32041135</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114419.6892729931</v>
+        <v>12683168.30365569</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123205.7080030489</v>
+        <v>13597717.88524736</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132444.0489939958</v>
+        <v>14458725.70164476</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>374</v>
@@ -27055,7 +27055,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>286</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
